--- a/data_year/zb/教育/普通高等学校(机构)教职工情况.xlsx
+++ b/data_year/zb/教育/普通高等学校(机构)教职工情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,738 +493,500 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>134.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>51.6938</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.1099</v>
+      </c>
+      <c r="E2" t="n">
+        <v>37.7225</v>
+      </c>
       <c r="F2" t="n">
-        <v>111.2776</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>215.6601</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.9313</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17.631</v>
+      </c>
+      <c r="I2" t="n">
+        <v>202.0497</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20.3345</v>
+      </c>
+      <c r="K2" t="n">
+        <v>29.7715</v>
+      </c>
+      <c r="L2" t="n">
+        <v>14.8552</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>139.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54.9921</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.8431</v>
+      </c>
+      <c r="E3" t="n">
+        <v>39.4689</v>
+      </c>
       <c r="F3" t="n">
-        <v>121.4429</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>220.4819</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.9944</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17.5221</v>
+      </c>
+      <c r="I3" t="n">
+        <v>207.708</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20.5157</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30.4026</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15.9691</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.8</v>
+        <v>144</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0992</v>
+        <v>57.6013</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0229</v>
+        <v>20.9811</v>
       </c>
       <c r="E4" t="n">
-        <v>18.6293</v>
+        <v>41.2692</v>
       </c>
       <c r="F4" t="n">
-        <v>130.36</v>
+        <v>225.4372</v>
       </c>
       <c r="G4" t="n">
-        <v>4.0695</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>7.2353</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.8159</v>
+      </c>
+      <c r="I4" t="n">
+        <v>212.4081</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20.6096</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30.9534</v>
+      </c>
       <c r="L4" t="n">
-        <v>6.021</v>
+        <v>16.9423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.5</v>
+        <v>149.7</v>
       </c>
       <c r="C5" t="n">
-        <v>24.0555</v>
+        <v>59.6954</v>
       </c>
       <c r="D5" t="n">
-        <v>14.6092</v>
+        <v>20.3713</v>
       </c>
       <c r="E5" t="n">
-        <v>21.6161</v>
+        <v>43.2356</v>
       </c>
       <c r="F5" t="n">
-        <v>145.3</v>
+        <v>229.6262</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1787</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>8.2341</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16.4563</v>
+      </c>
+      <c r="I5" t="n">
+        <v>217.9314</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20.528</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31.2606</v>
+      </c>
       <c r="L5" t="n">
-        <v>7.0063</v>
+        <v>18.1501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>153.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>61.3729</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.5763</v>
+      </c>
+      <c r="E6" t="n">
+        <v>44.8625</v>
+      </c>
       <c r="F6" t="n">
-        <v>161.0658</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>233.5723</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.7257</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.9217</v>
+      </c>
+      <c r="I6" t="n">
+        <v>221.8556</v>
+      </c>
+      <c r="J6" t="n">
+        <v>20.6321</v>
+      </c>
+      <c r="K6" t="n">
+        <v>31.8508</v>
+      </c>
+      <c r="L6" t="n">
+        <v>18.9136</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+        <v>157.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>62.7635</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.1774</v>
+      </c>
+      <c r="E7" t="n">
+        <v>46.2825</v>
+      </c>
       <c r="F7" t="n">
-        <v>174.2073</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+        <v>236.9326</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.4293</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15.1748</v>
+      </c>
+      <c r="I7" t="n">
+        <v>225.8289</v>
+      </c>
+      <c r="J7" t="n">
+        <v>21.0542</v>
+      </c>
+      <c r="K7" t="n">
+        <v>32.3434</v>
+      </c>
+      <c r="L7" t="n">
+        <v>19.6038</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>107.6</v>
+        <v>160.2</v>
       </c>
       <c r="C8" t="n">
-        <v>35.221</v>
+        <v>63.6438</v>
       </c>
       <c r="D8" t="n">
-        <v>23.9482</v>
+        <v>18.8893</v>
       </c>
       <c r="E8" t="n">
-        <v>30.483</v>
+        <v>47.3801</v>
       </c>
       <c r="F8" t="n">
-        <v>187.2601</v>
+        <v>240.4784</v>
       </c>
       <c r="G8" t="n">
-        <v>7.0611</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>10.0682</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.6209</v>
+      </c>
+      <c r="I8" t="n">
+        <v>229.6172</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21.6513</v>
+      </c>
+      <c r="K8" t="n">
+        <v>33.1482</v>
+      </c>
       <c r="L8" t="n">
-        <v>10.8856</v>
+        <v>20.2154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>116.8</v>
+        <v>163.3</v>
       </c>
       <c r="C9" t="n">
-        <v>39.4449</v>
+        <v>64.41540000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>25.6962</v>
+        <v>18.1785</v>
       </c>
       <c r="E9" t="n">
-        <v>32.63</v>
+        <v>49.0184</v>
       </c>
       <c r="F9" t="n">
-        <v>197.4526</v>
+        <v>244.2995</v>
       </c>
       <c r="G9" t="n">
-        <v>7.0938</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>10.8208</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13.9715</v>
+      </c>
+      <c r="I9" t="n">
+        <v>233.698</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22.0791</v>
+      </c>
+      <c r="K9" t="n">
+        <v>34.3226</v>
+      </c>
       <c r="L9" t="n">
-        <v>11.9651</v>
+        <v>20.8917</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.7451</v>
+        <v>167.2753</v>
       </c>
       <c r="C10" t="n">
-        <v>43.564</v>
+        <v>65.5883</v>
       </c>
       <c r="D10" t="n">
-        <v>25.832</v>
+        <v>17.839</v>
       </c>
       <c r="E10" t="n">
-        <v>34.2699</v>
+        <v>50.4719</v>
       </c>
       <c r="F10" t="n">
-        <v>205.1029</v>
+        <v>248.7544</v>
       </c>
       <c r="G10" t="n">
-        <v>7.1826</v>
+        <v>11.5887</v>
       </c>
       <c r="H10" t="n">
-        <v>18.0542</v>
+        <v>13.1827</v>
       </c>
       <c r="I10" t="n">
-        <v>189.8086</v>
+        <v>238.4187</v>
       </c>
       <c r="J10" t="n">
-        <v>19.4358</v>
+        <v>22.3358</v>
       </c>
       <c r="K10" t="n">
-        <v>28.5735</v>
+        <v>35.6249</v>
       </c>
       <c r="L10" t="n">
-        <v>12.8966</v>
+        <v>21.7874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.5</v>
+        <v>174.0145</v>
       </c>
       <c r="C11" t="n">
-        <v>47.7541</v>
+        <v>67.3857</v>
       </c>
       <c r="D11" t="n">
-        <v>24.7962</v>
+        <v>18.0196</v>
       </c>
       <c r="E11" t="n">
-        <v>36.0675</v>
+        <v>52.5371</v>
       </c>
       <c r="F11" t="n">
-        <v>211.1451</v>
+        <v>256.6705</v>
       </c>
       <c r="G11" t="n">
-        <v>7.0909</v>
+        <v>13.1564</v>
       </c>
       <c r="H11" t="n">
-        <v>17.9514</v>
+        <v>12.9027</v>
       </c>
       <c r="I11" t="n">
-        <v>196.65</v>
+        <v>246.2764</v>
       </c>
       <c r="J11" t="n">
-        <v>19.9692</v>
+        <v>22.6914</v>
       </c>
       <c r="K11" t="n">
-        <v>29.2046</v>
+        <v>36.6678</v>
       </c>
       <c r="L11" t="n">
-        <v>13.8161</v>
+        <v>22.9157</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>134.3</v>
+        <v>183.2982</v>
       </c>
       <c r="C12" t="n">
-        <v>51.6938</v>
+        <v>69.87050000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>23.1099</v>
+        <v>19.0277</v>
       </c>
       <c r="E12" t="n">
-        <v>37.7225</v>
+        <v>55.0705</v>
       </c>
       <c r="F12" t="n">
-        <v>215.6601</v>
+        <v>266.8708</v>
       </c>
       <c r="G12" t="n">
-        <v>6.9313</v>
+        <v>15.0344</v>
       </c>
       <c r="H12" t="n">
-        <v>17.631</v>
+        <v>12.3824</v>
       </c>
       <c r="I12" t="n">
-        <v>202.0497</v>
+        <v>256.1094</v>
       </c>
       <c r="J12" t="n">
-        <v>20.3345</v>
+        <v>22.856</v>
       </c>
       <c r="K12" t="n">
-        <v>29.7715</v>
+        <v>37.5728</v>
       </c>
       <c r="L12" t="n">
-        <v>14.8552</v>
+        <v>24.2951</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.3</v>
+        <v>186.5541</v>
       </c>
       <c r="C13" t="n">
-        <v>54.9921</v>
+        <v>70.5491</v>
       </c>
       <c r="D13" t="n">
-        <v>21.8431</v>
+        <v>19.5753</v>
       </c>
       <c r="E13" t="n">
-        <v>39.4689</v>
+        <v>55.5873</v>
       </c>
       <c r="F13" t="n">
-        <v>220.4819</v>
+        <v>275.1229</v>
       </c>
       <c r="G13" t="n">
-        <v>6.9944</v>
+        <v>16.4292</v>
       </c>
       <c r="H13" t="n">
-        <v>17.5221</v>
-      </c>
-      <c r="I13" t="n">
-        <v>207.708</v>
-      </c>
+        <v>12.7038</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>20.5157</v>
+        <v>24.3351</v>
       </c>
       <c r="K13" t="n">
-        <v>30.4026</v>
+        <v>39.2599</v>
       </c>
       <c r="L13" t="n">
-        <v>15.9691</v>
+        <v>24.4132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144</v>
-      </c>
-      <c r="C14" t="n">
-        <v>57.6013</v>
-      </c>
-      <c r="D14" t="n">
-        <v>20.9811</v>
-      </c>
-      <c r="E14" t="n">
-        <v>41.2692</v>
-      </c>
-      <c r="F14" t="n">
-        <v>225.4372</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7.2353</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16.8159</v>
-      </c>
-      <c r="I14" t="n">
-        <v>212.4081</v>
-      </c>
-      <c r="J14" t="n">
-        <v>20.6096</v>
-      </c>
-      <c r="K14" t="n">
-        <v>30.9534</v>
-      </c>
-      <c r="L14" t="n">
-        <v>16.9423</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>59.6954</v>
-      </c>
-      <c r="D15" t="n">
-        <v>20.3713</v>
-      </c>
-      <c r="E15" t="n">
-        <v>43.2356</v>
-      </c>
-      <c r="F15" t="n">
-        <v>229.6262</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8.2341</v>
-      </c>
-      <c r="H15" t="n">
-        <v>16.4563</v>
-      </c>
-      <c r="I15" t="n">
-        <v>217.9314</v>
-      </c>
-      <c r="J15" t="n">
-        <v>20.528</v>
-      </c>
-      <c r="K15" t="n">
-        <v>31.2606</v>
-      </c>
-      <c r="L15" t="n">
-        <v>18.1501</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>61.3729</v>
-      </c>
-      <c r="D16" t="n">
-        <v>19.5763</v>
-      </c>
-      <c r="E16" t="n">
-        <v>44.8625</v>
-      </c>
-      <c r="F16" t="n">
-        <v>233.5723</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8.7257</v>
-      </c>
-      <c r="H16" t="n">
-        <v>15.9217</v>
-      </c>
-      <c r="I16" t="n">
-        <v>221.8556</v>
-      </c>
-      <c r="J16" t="n">
-        <v>20.6321</v>
-      </c>
-      <c r="K16" t="n">
-        <v>31.8508</v>
-      </c>
-      <c r="L16" t="n">
-        <v>18.9136</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>157.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>62.7635</v>
-      </c>
-      <c r="D17" t="n">
-        <v>19.1774</v>
-      </c>
-      <c r="E17" t="n">
-        <v>46.2825</v>
-      </c>
-      <c r="F17" t="n">
-        <v>236.9326</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9.4293</v>
-      </c>
-      <c r="H17" t="n">
-        <v>15.1748</v>
-      </c>
-      <c r="I17" t="n">
-        <v>225.8289</v>
-      </c>
-      <c r="J17" t="n">
-        <v>21.0542</v>
-      </c>
-      <c r="K17" t="n">
-        <v>32.3434</v>
-      </c>
-      <c r="L17" t="n">
-        <v>19.6038</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>160.2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>63.6438</v>
-      </c>
-      <c r="D18" t="n">
-        <v>18.8893</v>
-      </c>
-      <c r="E18" t="n">
-        <v>47.3801</v>
-      </c>
-      <c r="F18" t="n">
-        <v>240.4784</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10.0682</v>
-      </c>
-      <c r="H18" t="n">
-        <v>14.6209</v>
-      </c>
-      <c r="I18" t="n">
-        <v>229.6172</v>
-      </c>
-      <c r="J18" t="n">
-        <v>21.6513</v>
-      </c>
-      <c r="K18" t="n">
-        <v>33.1482</v>
-      </c>
-      <c r="L18" t="n">
-        <v>20.2154</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>163.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>64.41540000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18.1785</v>
-      </c>
-      <c r="E19" t="n">
-        <v>49.0184</v>
-      </c>
-      <c r="F19" t="n">
-        <v>244.2995</v>
-      </c>
-      <c r="G19" t="n">
-        <v>10.8208</v>
-      </c>
-      <c r="H19" t="n">
-        <v>13.9715</v>
-      </c>
-      <c r="I19" t="n">
-        <v>233.698</v>
-      </c>
-      <c r="J19" t="n">
-        <v>22.0791</v>
-      </c>
-      <c r="K19" t="n">
-        <v>34.3226</v>
-      </c>
-      <c r="L19" t="n">
-        <v>20.8917</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>167.3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>65.5883</v>
-      </c>
-      <c r="D20" t="n">
-        <v>17.839</v>
-      </c>
-      <c r="E20" t="n">
-        <v>50.4719</v>
-      </c>
-      <c r="F20" t="n">
-        <v>248.7544</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11.5887</v>
-      </c>
-      <c r="H20" t="n">
-        <v>13.1827</v>
-      </c>
-      <c r="I20" t="n">
-        <v>238.4187</v>
-      </c>
-      <c r="J20" t="n">
-        <v>22.3358</v>
-      </c>
-      <c r="K20" t="n">
-        <v>35.6249</v>
-      </c>
-      <c r="L20" t="n">
-        <v>21.7874</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>174.0145</v>
-      </c>
-      <c r="C21" t="n">
-        <v>67.3857</v>
-      </c>
-      <c r="D21" t="n">
-        <v>18.0196</v>
-      </c>
-      <c r="E21" t="n">
-        <v>52.5371</v>
-      </c>
-      <c r="F21" t="n">
-        <v>256.6705</v>
-      </c>
-      <c r="G21" t="n">
-        <v>13.1564</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12.9027</v>
-      </c>
-      <c r="I21" t="n">
-        <v>246.2764</v>
-      </c>
-      <c r="J21" t="n">
-        <v>22.6914</v>
-      </c>
-      <c r="K21" t="n">
-        <v>36.6678</v>
-      </c>
-      <c r="L21" t="n">
-        <v>22.9157</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>183.2982</v>
-      </c>
-      <c r="C22" t="n">
-        <v>69.87050000000001</v>
-      </c>
-      <c r="D22" t="n">
-        <v>19.0277</v>
-      </c>
-      <c r="E22" t="n">
-        <v>55.0705</v>
-      </c>
-      <c r="F22" t="n">
-        <v>266.8708</v>
-      </c>
-      <c r="G22" t="n">
-        <v>15.0344</v>
-      </c>
-      <c r="H22" t="n">
-        <v>12.3824</v>
-      </c>
-      <c r="I22" t="n">
-        <v>256.1094</v>
-      </c>
-      <c r="J22" t="n">
-        <v>22.856</v>
-      </c>
-      <c r="K22" t="n">
-        <v>37.5728</v>
-      </c>
-      <c r="L22" t="n">
-        <v>24.2951</v>
-      </c>
+        <v>196.3036</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
